--- a/weibo_comments.xlsx
+++ b/weibo_comments.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4635 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Max氵mun</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>林帅哥辣手摧花。而且是两次。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鹭岛Amoy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>第二&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>某酸菜鱼的超电磁炮</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>林哥还是太强了&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>一头活猪V</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>想看师姐&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>猎光者999</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>回球在同一个地方就很被动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>not-is-any2012</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[哈哈]" title="[哈哈]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8f/2018new_haha_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SUNingChau</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[作揖]" title="[作揖]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/e7/2018new_zuoyi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>去到罗刹</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>后场买房了</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>大鹏-改来改去都重名</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>戴个护膝吧&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Elysia-XY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>第一&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>卖海鲜的杨姐_</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>🤫帅是一种感觉</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>夏日听风不是雨</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>菲帝无论是实力还是心态已经Next level</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>贝尔是居居</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>陈雨菲牛逼 就这样一直坚定地打下去吧！！！！&lt;img alt="[苦涩]" title="[苦涩]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7e/2021_bitter_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>shine-凉生</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>这个小菲菲场上打球帅成这样场下讲话这么谦虚&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>圆予昼</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>陈雨菲行不行 陈雨菲说了算&lt;img alt="[抓狂]" title="[抓狂]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/17/2018new_zhuakuang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>-Nuyoah_Cx-</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>永远强大、自信、谦虚的雨菲，恭喜雨菲战胜安洗莹</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>威划饼饼干_</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>又努力又谦虚&lt;img alt="[苦涩]" title="[苦涩]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7e/2021_bitter_org.png" /&gt;&lt;img alt="[苦涩]" title="[苦涩]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7e/2021_bitter_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>金元昊2028ogg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>谦虚优秀的菲菲&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>没有人先生家的半先生</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>菲常坚定，菲菲打得特别好！！真的是最有力的强心剂&lt;img alt="[赞]" title="[赞]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/e6/2018new_zan_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>菠萝小粽子</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>陈雨菲行不行，陈雨菲自己说了算！超级帅！</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>笨欢欢欢欢欢欢欢</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>“没人能说我不行”</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>帕泥泥</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>有这样的心态，做什么事都能成功的吧&lt;img alt="[awsl]" title="[awsl]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/14/moren_awsl02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>香菜味的蝴蝶</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>雨菲大帝就是yyds💪💪💪💪</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>草莓牛奶少冰</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>帅是一种感觉😎&lt;img alt="[舔屏]" title="[舔屏]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3e/2018new_tianping_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>鱼尾牙</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>我菲女王</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>橘子味山总</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>陈雨菲好厉害！！&lt;a href="//s.weibo.com/weibo?q=%23%E9%99%88%E9%9B%A8%E8%8F%B2%E6%99%8B%E7%BA%A7%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%85%AC%E5%BC%80%E8%B5%9B4%E5%BC%BA%23" target="_blank"&gt;#陈雨菲晋级新加坡公开赛4强#&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AnemoneNing</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>我们菲菲就是坠棒哒！&lt;img alt="[太开心]" title="[太开心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/1e/2018new_taikaixin_org.png" /&gt;&lt;img alt="[太开心]" title="[太开心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/1e/2018new_taikaixin_org.png" /&gt;&lt;img alt="[太开心]" title="[太开心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/1e/2018new_taikaixin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>鹅城兔少</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>陈雨菲棒棒哒</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>陈雨菲起Faye的一个铁粉</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>好好休息！继续加油！菲菲！今天真棒！</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>o-柠檬兔兔兔酱-o</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>菲菲&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NOMOREICEWATER</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>原视频： &lt;a target="_blank" href="//weibo.cn/sinaurl?u=http%3A%2F%2Fxhslink.com%2Fa%2F9M71HHeyOdRfb"&gt;&lt;img class="icon-link" title="http://t.cn/A6D5n14i" src="https://h5.sinaimg.cn/upload/2015/09/25/3/timeline_card_small_web_default.png"/&gt;网页链接&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>-像夏天的浪花</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>很多话从去年说到现在了，听得进去的人早就听进去了，无视那些纷纷扰扰吧&lt;img alt="[抱抱]" title="[抱抱]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/42/2018new_baobao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>寄春光</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>“其实很多事，大家不应该这样说的…”</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>呆头鱼呃</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>宝宝们，喜欢会是负担嘛&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>懒得再想什么昵称了</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>听到蟹黄面怎么挑眉了？os:背着我偷偷吃好吃的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MUllerlnK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>艾登是国羽人见人爱的小朋友&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;哥哥姐姐叔叔姨姨们争相逗他</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>赵北川_BC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>思维哥真的在学着当一个好爸爸&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;点赞点赞超级奶爸</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>夏日听风不是雨</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>哥，累了可以把登登送俺养两天</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NOMOREICEWATER</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>哎呀是迷你登</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>嘉铭同学2006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>艾登可爱懂事，人见人爱。思维哥也很棒，在陪伴艾登的过程中正在成为完美爸爸！继续加油！&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>最爱Grace宝贝</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>爱登聪明又可爱，是一个人见人爱的乖宝宝&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>往后余生请多指教-龙哥</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>一见倾心的成毅</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>登登太可爱了</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>基利安ky小粉丝</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[作揖]" title="[作揖]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/e7/2018new_zuoyi_org.png" /&gt;&lt;img alt="[作揖]" title="[作揖]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/e7/2018new_zuoyi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>基利安ky小粉丝</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>基利安ky小粉丝</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[赞啊]" title="[赞啊]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/00/lxhzan_thumb.gif" /&gt;&lt;img alt="[赞啊]" title="[赞啊]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/00/lxhzan_thumb.gif" /&gt;&lt;img alt="[赞啊]" title="[赞啊]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/00/lxhzan_thumb.gif" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>暮峰小叔</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>好可爱&lt;img alt="[老师爱你]" title="[老师爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/82/2023_Teacherlovesyou_org.png" /&gt;&lt;img alt="[老师爱你]" title="[老师爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/82/2023_Teacherlovesyou_org.png" /&gt;&lt;img alt="[老师爱你]" title="[老师爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/82/2023_Teacherlovesyou_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>涛涛没穿内酷</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>我说我可以8</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>小登小时候真的好萌呀！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mm流云</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>眼神成熟了也&lt;img alt="[送花花]" title="[送花花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Flowers_org.png" /&gt;&lt;img alt="[送花花]" title="[送花花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Flowers_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>_娇妻命_</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>艾登可爱，老登是个男的</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>星辰-雅思</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>哈哈哈，哥变得有些些许沧桑了&lt;img alt="[思考]" title="[思考]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/30/2018new_sikao_org.png" /&gt;&lt;img alt="[思考]" title="[思考]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/30/2018new_sikao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>阿拉斯耶</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>真的是太太太有耐心了</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>香锅火锅酸菜鱼</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>最大变化是你从雅思里的思变成了老登&lt;img alt="[笑cry]" title="[笑cry]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/4a/2018new_xiaoku_thumb.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>春和04</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>可爱的宝宝</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rhodamine_101</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>太棒了～继续～不停～</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>一只胖梦奇_</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>陈雨菲行不行 陈雨菲说了算！</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>默默的营地</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>菲太棒了&lt;img alt="[加油]" title="[加油]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/9f/2018new_jiayou_org.png" /&gt;希望梁王沾沾我菲今天战胜安子的喜气和必胜心，打出水平打出风格&lt;img alt="[加油]" title="[加油]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/9f/2018new_jiayou_org.png" /&gt;&lt;img alt="[加油]" title="[加油]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/9f/2018new_jiayou_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>美式加冰不加糖呀</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>太牛了！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>有爱的未来一直在-</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>太棒了！！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>山水之间1231</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>哇！恭喜雨菲大帝！</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>做自己的任公子</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>牛逼，九阳神功破了玄冥神掌</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>向前跑起来go</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>转发微博</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>_蜉蝣于天地_</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>好厉害啊【是的我不可避免的想】</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>灰色灵魂的鱼</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>恭喜恭喜🎉</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>明儿个大乐透会中一等奖</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>棒棒哒</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>玲子家的fan小胖</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>厉害了菲菲&lt;a href="//s.weibo.com/weibo?q=%23%E9%99%88%E9%9B%A8%E8%8F%B2%E6%A8%AA%E6%89%AB%E5%AE%89%E6%B4%97%E8%8E%B9%23" target="_blank"&gt;#陈雨菲横扫安洗莹#&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>月亮和十一便士</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>太牛了雨菲！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>喂味伟</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>太牛了菲菲</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>她在丛中笑07</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>雨菲太棒了</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fansweet-</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>好棒&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>-小喵电台-</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>菲菲牛</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FZD圆梦巴黎再战洛杉矶</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>菲菲太牛了&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;&lt;img alt="[哇]" title="[哇]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3d/2022_wow_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>涅槃皇羽乐</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>菲菲牛！！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>分分钟需要你哈</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>菲菲&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>然而寒冬过后</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>多久之前的视频了</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>之昂1896</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>你俩打女双吧，都是拖不动队友的顶尖选手&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>這可是小猫欸</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>第二视角&lt;img alt="[兔子]" title="[兔子]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c6/2018new_tuzi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>五六七006</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>小星星快要揭不开锅了</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-Nicky-W-YS-GOAT-万事都灵版---</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>这是存货吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>hahaer3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>最爱看清晨</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>浓浓咕咕</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>咱瓜队支持跨国双打吗？好像不太支持吧&lt;img alt="[开学季]" title="[开学季]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/72/2021_kaixueji_org.png" /&gt;不然真想看陈姐跟沙姐组队女双会有什么火花&lt;img alt="[嘻嘻]" title="[嘻嘻]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/33/2018new_xixi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Desperado上官</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>厉害</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ceres_MU</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>这俩打女双给我睇睇&lt;img alt="[酷]" title="[酷]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c4/2018new_ku_org.png" /&gt;&lt;img alt="[憧憬]" title="[憧憬]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c9/2018new_chongjing_org.png" /&gt;&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>hlp大智若愚</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>呆若木鸡薇</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>太厉害了</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>AAA疯批懒大王</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>生日快乐陈姐&lt;img alt="[抱一抱]" title="[抱一抱]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/af/2020_hug_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-AllTooWell记忆犹新-</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>阿清生日快乐！</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mariana_ko</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>阿清生日快乐！！！🎂🎉</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>乖乖不扯拐哟</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>生日快乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Miss_橙橙橙</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>清晨生日快乐🥳🥳</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tsuruta_622</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>生日快乐陈姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Alice_52</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>哇同天&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>饭盒上捡米粒</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>陈姐生日快乐&lt;img alt="[送花花]" title="[送花花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Flowers_org.png" /&gt;&lt;img alt="[送花花]" title="[送花花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Flowers_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>戴祎明</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>生日快乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>单纯红豆爱养生</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>陈姐生日快乐🎂🎂美丽动人&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>冉冉升起地猩猩</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>凡尘真的是作为超一流女双 完整的顶了两个奥运周期 真的太完美了</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>幸福zhu妮</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>生日快乐&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>擂椒饭不吃擂椒</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>网前雨刮器天才少女</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>赵宁丶-赵小宁</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[馋嘴]" title="[馋嘴]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/fa/2018new_chanzui_org.png" /&gt;&lt;img alt="[馋嘴]" title="[馋嘴]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/fa/2018new_chanzui_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>shine-凉生</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>陈姐生日快乐！&lt;img alt="[羞嗒嗒]" title="[羞嗒嗒]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/df/lxhxiudada_org.gif" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>是旺仔仔呢</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>陈清晨生日快乐🎂🎁</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>丁小姐是也哦哈哈</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>用户6969180654</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>生气快乐&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>西西歪歪m</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鼓掌]" title="[鼓掌]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_guzhang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>用户6470410878</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>莎莎_0102</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>我没失忆啊 怎么对这个场景没印象呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>QAZZH</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>只要石头身体好每天都想看&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[威武]" title="[威武]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/14/2018new_weiwu_org.png" /&gt;&lt;img alt="[笑cry]" title="[笑cry]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/4a/2018new_xiaoku_thumb.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>安苒badminton</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1992年9月出生的李凤梅是福建龙岩人她是一位肢体残疾人2013年入选福建省残疾人羽毛球队同时，也是名副其实的“多金王” 曾获得全国残运会7金1银获得杭州第四届亚残运会2金1铜2024年世锦赛3金的成绩2024年9月2日在巴黎残奥会羽毛球混合双打SH6项目比赛中李凤梅与队友林乃利以2-0战胜美国选手夺得金牌</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>馨中有埈奇228529</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>好棒</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Striking许</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>厉害</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>国羽冲鸭</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>真棒</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>阿依舍悦</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ACAKOGG</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>强大</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>五六七006</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>厉害</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>伯一by</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>这次亚锦赛战立组印度队对我们的冲击还挺大的，程和芳好像没去</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>渔鱼子大王无敌</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>求 有偿</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>牛油果胖胖</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>一般&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>文明有李</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>要的私</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>星辰不及你2000</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>求软件有偿</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>依旧大阿伟</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>求链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>yhq嘿嘿嘿</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>🈶全，🉑私&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>哒嗒_</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>全集  有偿&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>mayue777</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>要的私</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>六翼天使V8</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>玩偶姐姐，不可污名化！</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>用户7991453243</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>我看了7 8片只能说bee不行啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>QXYTJC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>有 真</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>戒王瘾中心所长</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>求有偿</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>呱唧的小粉丝反迷你74931</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>求</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>用户6558186711</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>像麦晓雯&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>橙子爸很靠谱</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>对，你不是职业女优，你只是正常穿搭虚构剧情无不良引导的自媒体</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>法律人方唐镜</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>来钱快的时候哐哐上作品，流量下来了开始写小作文了呗&lt;img alt="[摊手]" title="[摊手]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/62/2018new_tanshou_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>爱不死你-</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>表子又想立牌坊了</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>linciyik</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>鳄鱼的眼泪</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>恶梦啵啵</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>没事碰加密货币干嘛&lt;img alt="[干饭人]" title="[干饭人]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Foodie_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Shady-Leong</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>来这边找几个沸羊羊还得了&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>OTXO受害者</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>我们喜欢看，但是我们瞧不起任何从事色情行业的东西，她们甚至不配被称为人&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>玩具王菲-补档</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>命运使然=发现能找大钱</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>mxoooooi</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>笑死，给自己立牌坊</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>洗剪五十吹三百</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>说得那么惨，建议开众筹</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>只有我在吃柠檬</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>属于是老白一样的忏悔 越陷越深但是自愿成分很多</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>史小迪_</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>滑坡效应</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>不务正业的幽君</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>说到底还是搞杠杆赔了嘛~&lt;img alt="[指定能行]" title="[指定能行]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/52/2025_Youcandoit_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>有兔爰爰yuan-兔爰</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>信佢一成双目失明，信佢两成_都变形</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>沙滩上的西瓜皮</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>年纪大了  拍不出什么新东西了而已 &lt;img alt="[哆啦A梦微笑]" title="[哆啦A梦微笑]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/5a/2022_dorasmile_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>种的正义伙伴</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>新编版好赌的爸，生病的妈，上学的弟弟，破碎的她罢了&lt;img alt="[汗]" title="[汗]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/28/2018new_han_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Ricardo绮罗香</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/暴食症患者李舜生 usercard="name=@暴食症患者李舜生"&gt;@暴食症患者李舜生&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ccb赵大宝</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>我还是喜欢娜娜的肥饱</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>high明威</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>玩虚拟币玩出幻觉了</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>吃包纸只吃馅儿</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>龙场悟道！</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>秦晓缘</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>老司机说，这绝不是</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>起疯了丶</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>没看到b我是不会信的</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>拥有啤酒肚的男人</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[吃瓜]" title="[吃瓜]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/01/2018new_chigua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>m-alone1983</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>哇哦</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>天之王权</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>黎木2</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>绝对不是她，她的露脸视频我看过</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0xc1cd</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>不是本人</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ZicoX晓</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>求链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>红黑不只是颜色</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>不如娜娜&lt;img alt="[二哈]" title="[二哈]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/22/2018new_erha_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>十年好唱却难等z</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>我有</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>辽A龍之吻</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>都是戴口罩的&lt;img alt="[吃瓜]" title="[吃瓜]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/01/2018new_chigua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>余温散尽QXL</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>求链接&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>没有太阳的天空-</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>太熟悉了&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>抡斧子的蓐收</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>听说破产了</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>让我们放荡吧</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>都能想到啥形状</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>龘聞覀</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>整容花了那么多钱，是要赚回来的&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>早睡而且晚起</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>求！</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>夏目有阁下</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>谁有</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>欲哭无泪乀</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>求&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>niggercum</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鼓掌]" title="[鼓掌]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_guzhang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>青梅摘取煮酒</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>偶姐：我是陪玩，又不是陪睡 ：谁让你说我打游戏菜的 偶姐：那你就是菜呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>杨漂亮的大世界</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>坦诚相待</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>达的问号</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>颜值一般般</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>流浪星球wind</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>肯定有过人之处&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>广州的老梁</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>web3+擦边， 较早的跨界成功者？</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>霸王鸡条子</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>都不是，玩偶的视频和建模，在行业里等多中等甚至偏下。但玩偶这人很聪明爱专研，当属抓住P站BUG一口气刷到榜一，后来在币圈合约挖矿链上都玩，有几个成人女星玩懂这些的？有这种钻研的性格，做什么都不会差。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Yocccccv</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>之前她自己不是说了吗，比较早进入这个行业，然后凑巧发现了p站的bug，通过卡bug让自己早期在p站积累起来了巨大的流量。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>爱财的深巷杏花</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>我知道玩偶姐姐都是群友们在说，你可以看看小虾的前女友现在都是web3出道了，我看了真的觉得恶心。当然你可以说我嫉妒，总结就是不要脸在web3是可以成功的</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>喜新厌旧的阿加西</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>干啥都要趁早，并且会营销</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MakeEthGreatAgain</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>早餐招财猫</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>幸存者偏差</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>CRYPTOWallbreaker</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>任何行业都是入门简单，精通难。她能赚这么多肯定不是泛泛之辈</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>碎银C</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>敢尝试</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>happysky自由自在</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>牛逼哇//&lt;a href=/n/霸王鸡条子 usercard="name=@霸王鸡条子"&gt;@霸王鸡条子&lt;/a&gt;:都不是，玩偶的视频和建模，在行业里等多中等甚至偏下。但玩偶这人很聪明爱专研，当属抓住P站BUG一口气刷到榜一，后来在币圈合约挖矿链上都玩，有几个成人女星玩懂这些的？有这种钻研的性格，做什么都不会差。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>碧根果43</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>发到小粉了哦，踢踢！</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>碧根果43</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>瓜老师投稿了很多，这两天有空就给你们发</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>南希落落落</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>这个姐姐的solo饭超级美味&lt;img alt="[憧憬]" title="[憧憬]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c9/2018new_chongjing_org.png" /&gt;&lt;img alt="[憧憬]" title="[憧憬]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c9/2018new_chongjing_org.png" /&gt;&lt;img alt="[憧憬]" title="[憧憬]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/c9/2018new_chongjing_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>看不惯我就去数</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[干饭人]" title="[干饭人]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Foodie_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>崽崽苏来咯</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>早&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>拾鎏-yy</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>求求</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>小熊汽水呀</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>求&lt;img alt="[悲伤]" title="[悲伤]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/ee/2018new_beishang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>小偷玫瑰____</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[苦涩]" title="[苦涩]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7e/2021_bitter_org.png" /&gt;&lt;img alt="[苦涩]" title="[苦涩]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7e/2021_bitter_org.png" /&gt;老师这个还能求一下嘛，才摸到这里来，我找好久了&lt;img alt="[淡淡的]" title="[淡淡的]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7b/2024_takearest_org.png" /&gt;&lt;img alt="[淡淡的]" title="[淡淡的]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7b/2024_takearest_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>小狗都要被我亲死</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>蹲</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>不要叫我菠萝哇</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>萘芸</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>蹲</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>乌鸦oi_</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>一颗欣两颗欣欣</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>求&lt;img alt="[爱慕]" title="[爱慕]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/18/2023_adore_org.png" /&gt;&lt;img alt="[爱慕]" title="[爱慕]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/18/2023_adore_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>549467-</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[融化]" title="[融化]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/53/2022_melt_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>开始躺平</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[赢牛奶]" title="[赢牛奶]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/9c/2021_yingniunai_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>to7oo</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[并不简单]" title="[并不简单]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/aa/2018new_bingbujiandan_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>beast笑</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[老师爱你]" title="[老师爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/82/2023_Teacherlovesyou_org.png" /&gt;&lt;img alt="[老师爱你]" title="[老师爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/82/2023_Teacherlovesyou_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>vh10_</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>蹲</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>阿楚-阿楚</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>蹲蹲</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>星光米rsh</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>同求求&lt;img alt="[干饭人]" title="[干饭人]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/cb/2022_Foodie_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>latisz</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>不是她</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>用户5785879675</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>好玩</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Rayon_kk</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>家虎宣示主权</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Eeee_blink</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>哪个姐姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DalErangRry</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>喜欢可以搬回家</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>173910o</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>黄牛不抢这个吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>不知别期</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>哎呦喂这个好吃😋</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Realikestudy_</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>好美&lt;img alt="[awsl]" title="[awsl]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/14/moren_awsl02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>狗兔永一</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>我吃一口瑞秋</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>睡懒觉厨</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>#审美积累</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>司颂座</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/ykkk101 usercard="name=@ykkk101"&gt;@ykkk101&lt;/a&gt; 好磕</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BANPRESTO</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>&lt;a target="_blank" href="https://t.cn/A6eefIHg"&gt;&lt;img class="icon-link" src="https://h5.sinaimg.cn/upload/2015/09/25/3/timeline_card_small_web_default.png"/&gt;网页链接&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>冬日章鱼小丸汤-</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/一口壹个脆薯饼 usercard="name=@一口壹个脆薯饼"&gt;@一口壹个脆薯饼&lt;/a&gt; 六十多一只宝宝&lt;img alt="[爱慕]" title="[爱慕]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/18/2023_adore_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>我是-干饭羊</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>这个是多大的啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>手拍菩萨</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>我想认识一下姐姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>葱油爆香</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>想看来儿和姐姐切磋一下武艺</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mi_Hoshi_615</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>姐姐有耍流氓嗎？&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>反派大郎</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>延时喷剂免费领取&lt;a target="_blank" href="https://weibo.com/5786706150/5030736284094686"&gt;&lt;img class="icon-link" title="http://t.cn/A68g6qv3" src="https://h5.sinaimg.cn/upload/2015/09/25/3/timeline_card_small_weibo_default.png"/&gt;微博正文&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>凉白开2</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>这在中国哪里举办的，主持人说的中文</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>你为什么要无理取闹</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>河北的彩花很出名吗&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>迪拜皇叔</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>好想和她拍一部&lt;img alt="[嘻嘻]" title="[嘻嘻]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/33/2018new_xixi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>用户7313421260</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>希望来我们这</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>于跃o_O</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/一枚阿彤哥 usercard="name=@一枚阿彤哥"&gt;@一枚阿彤哥&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mike_wuli</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>她是我们河北的吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>John06898</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>降妖除魔李火旺</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>老乡多高？怎么粉丝都没她高？</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>多久才会结束</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>我们河北人的骄傲</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>用户7527169659</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>河南的呢，怎么能缺？</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>社会主义好青年vip6</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>河北上大分&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ince雅治</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>这是个日本人，并非河北省人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>vbvbvb</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>持久训练秘法</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>好高啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>绅士_骑士</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>比心&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>虎魄猫</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>哦，河北的啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>红蓝双子座</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>我以为河北办成人展呢  我说可以呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>中乙二线预备队候选替补</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>临走不忘瞄一眼</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>本拉垮登</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>又是褒贬不一的评价&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>叫醒贪睡虎</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>脱了吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>咩看小说</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>是哦女儿763</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>明谿竹</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>已删，too boring</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>过往藏在风的回忆里</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>不如三上老师那部&lt;img alt="[二哈]" title="[二哈]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/22/2018new_erha_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>willSher534</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>不是 我觉得变态是二楼姐的本色出演</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>xcws2016</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>这么近那么美，周末到河北&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>面对疾风吧j</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>不如小明那部图书馆&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>扬扬扬扬手</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>cy</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Ultramanclaman宇</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>这部跟林太一啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>地表最强干饭袋熊</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>还得是河北大神</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>用户5177895489</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>星辉满船</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>这罗圈腿</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>目前不缺一阙</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>cy</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>花好月圆-202401</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>左脚膝盖有疤</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Irelia丶丶</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>cy</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Yeye当新郎</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>纯拉。2.40小时1小时划水，搭配肥林这种顶级选手居然一点不刺激。给我恨狠蹬老乡啊，怕鸡儿</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>用户7804794517</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;&lt;img alt="[爱你]" title="[爱你]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/f6/2018new_aini_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>luanlLll</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>一瓶可乐</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>赵3ho</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>在哪看&lt;img alt="[傻眼]" title="[傻眼]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/dd/2018new_shayan_org.png" /&gt;怎么看&lt;img alt="[傻眼]" title="[傻眼]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/dd/2018new_shayan_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>霓虹非夜热</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>这下大家知道她为何是销量王了吧，这气质不输大明星啊&lt;img alt="[笑而不语]" title="[笑而不语]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/2d/2018new_xiaoerbuyu_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>给力橙cc</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>为什么感觉有点点像李雪琴</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>神乎其技X</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>还行&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;花水木很多人翻唱过，算中等</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>James_Bon</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>不管是演技还是综合艺能都超过国内小花</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>yoki0409</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>比国内的专业女歌手唱的都好&lt;img alt="[笑cry]" title="[笑cry]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/4a/2018new_xiaoku_thumb.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Peter在进步</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>很上镜，气质不错</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>sparewheel</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>一青窈的老歌，，，，，，真不错</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>VinkyCheung</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>河北老乡肯定会跟随明日花、三上的发展&lt;img alt="[单身狗]" title="[单身狗]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/20/2021_alongdog_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>萌名moena</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>彩花早日转型吧，跟随前辈的脚步&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>晨C久久</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>多彩多艺   业界第一不想拿都难&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>bitchmelon</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>有这条件来中国当网红现在已经赚了一个小目标了</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>天很蓝12345</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>不明白她好看在哪里</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>一般路过特摄推笨小饼</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>厉害啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>看球的刘子奇</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>大明星&lt;img alt="[666]" title="[666]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6c/2022_666_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>南瓜_绿</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>不知道神宫寺歌唱的怎样</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>跟着我领盒饭</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>拍戏可不是白叫的&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>单板只玩推坡</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/不衛生店老闆 usercard="name=@不衛生店老闆"&gt;@不衛生店老闆&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>路过的寒月先生</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>啥节目？</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>草莓熊熊的棉花糖</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>我只喜欢大桃子</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>花生九七</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>还是喜欢森泽佳奈</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>墨浓如颜</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>我喜欢无码的&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;都没有吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>时毛68813</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>新有菜，明里紬</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CFXY崔哒哒</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>每次活动在哪里办啊？</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>深海白兰王</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>石川澪好看&lt;img alt="[舔屏]" title="[舔屏]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/3e/2018new_tianping_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Rose-Gunner</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/宜以毅易逸 usercard="name=@宜以毅易逸"&gt;@宜以毅易逸&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>米修修和腹肌say古拜</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>说明比例不好，菜花171坐着比166的油菜高半头，但是站一起的时候油菜的腿比菜花长很多。</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>李嘉可可</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>能问下这个是谁吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>wb有本事封我号</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>啊？樱空桃？我一直管她叫樱桃空，而且真人和作品颜值差别也太大了吧，眼睛那么小。还是菜花和有菜颜值抗打</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>MRZHANG200407</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>虎南是真的大&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>农药49星中单法王</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>转发微博</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Mr晖先森的灰</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>寻95482</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>澪妹才是真的又白又粉</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>社服农险-杨哲</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>非白的世界</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>嘿嘿</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>妮可罗宾bin</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>白马座上白袍小将</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>这脸很普好吧，什么眼光</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>不喝茶不舒服斯基</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/嘟云作者痴 usercard="name=@嘟云作者痴"&gt;@嘟云作者痴&lt;/a&gt; 河北省花</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>A_357B</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>亲友：让我先爽爽</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>霸天下唱</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>是因为生活所迫，还是热爱这份事业</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>奥瑞给</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>河北妹子真漂亮</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>浪子我不能再低调了</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>&lt;a href="//s.weibo.com/weibo?q=%23%E6%B2%B3%E5%8C%97%E5%BD%A9%E8%8A%B1%23" target="_blank"&gt;#河北彩花#&lt;/a&gt; &lt;a href="//s.weibo.com/weibo?q=%23%E6%B2%B3%E5%8C%97%23" target="_blank"&gt;#河北#&lt;/a&gt; &lt;a href="//s.weibo.com/weibo?q=%23%E9%87%87%E8%AE%BF%23" target="_blank"&gt;#采访#&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>我是小新新or</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>她亲友应该也喜欢看</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>这名男子没名字</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>还以为李雪琴呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>观澜詹姆斯</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>老爹也爱看&lt;img alt="[泪]" title="[泪]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_leimu_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>genierainie</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;&lt;img alt="[鲜花]" title="[鲜花]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/d4/2018new_xianhua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>六月初K总</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>看过了&lt;img alt="[偷笑]" title="[偷笑]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/71/2018new_touxiao_org.png" /&gt;&lt;img alt="[偷笑]" title="[偷笑]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/71/2018new_touxiao_org.png" /&gt;吓栽跨克嗖《怡人影视》就可以看了，我也找了好久&lt;img alt="[嘻嘻]" title="[嘻嘻]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/33/2018new_xixi_org.png" /&gt;&lt;img alt="[嘻嘻]" title="[嘻嘻]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/33/2018new_xixi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Survivor-黎</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>&lt;a href=/n/无趣_swaggie usercard="name=@无趣_swaggie"&gt;@无趣_swaggie&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>用户7978370389</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>她有微调吧，最早的片颜值没这么高</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>梧桐树下芙蓉溪上</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>亲友早撸秃噜皮了</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>横财12小时</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>霸榜几个月，你亲友会不知道？装不知道而已，也怕你难为情。</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>一日两撸</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>舍小家为大家，吾辈楷模&lt;img alt="[赞]" title="[赞]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/e6/2018new_zan_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>有车君</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>各种番号都有，一顿饭钱</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>鹤音悠扬</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>劳塔罗-图拉姆</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>男优从事这行，亲友啥反应，只会说斯果伊吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>革命火种威震天</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>亲友：要不让我先爽一下？</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>动漫WLS</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>亲友们也想要</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>我又来腊</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>河北老乡屁股太平了</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>人生已多风雨-只想把酒言欢</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>亲友打折免预约</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>嘿嘿你们懂得</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>优雅</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>车厘子和草莓丶</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>亲友想跑个龙套&lt;img alt="[悲伤]" title="[悲伤]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/ee/2018new_beishang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>用户7262707301</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>要是我身边有女的做这行就好了</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>电报工程师</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>不仅你家人，全省人都为你骄傲</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>换了蓝衣服的WD</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>最新的是啥</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>最佳等风来987</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[打call]" title="[打call]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/39/moren_dacall02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>黯绿色的心</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>转发微博</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>VANVAN01</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>多出点好片啊，学学佐佐木明希</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>用户7402528300</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[心]" title="[心]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_xin_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>用户7741598138</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>河北出人才啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>持久延时训练秘法</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>我咋没看过她的作品</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ZNS48</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>这个周末上河北</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>一般路过特摄推笨小饼</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>业界xxn&lt;img alt="[吃瓜]" title="[吃瓜]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/01/2018new_chigua_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>老水的围脖</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>周末去看河北</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>John06898</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;&lt;img alt="[good]" title="[good]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8a/2018new_good_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>正版愤怒的小鸡</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>我觉得一般吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>字衡熙</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>感谢每个老师的付出</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>pete不健淡</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>想去河北了</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>轩宇cn</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>没看过新顶流？</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>爱吃西瓜真是太好了</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>太平了，我喜欢大的视觉冲击</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>南田MAK</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>亲友组团加入&lt;img alt="[嘻嘻]" title="[嘻嘻]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/33/2018new_xixi_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>莫孱孱</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>这面貌不适合她做这个！看起来没有哪个感觉</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>强一点点的cfer</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>厉害</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>53度的百岁山</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>二楼姐</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>何必念曾经</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>男亲友极度兴奋</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>假装不在重庆</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>啥工作</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>无情葬花魂</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>这么近，那么美，天天看河北&lt;img alt="[鼓掌]" title="[鼓掌]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/6e/2018new_guzhang_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>用户6096539842</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>她kou的技术，她称第二没人敢说第一&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>酸奶别装纯milk</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>也就看看脸了&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>代伟男</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>去做偶像吧，在这领域少了些敬业</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>北方布衣1721001140</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>为什么说是河北？</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>的小天</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>颜值顶，但态度一般</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>馒头馅包子3184252744</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>cy</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>无中juq生友</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>老乡没有演技，太出戏了&lt;img alt="[费解]" title="[费解]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/2a/2018new_wenhao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>持久延时训练秘法</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>在哪看呢</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>月牙儿nh</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>好心人</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>智障预防中心主任</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>花被管不了</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>她最火哪个作品</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>浅色系星球</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>东山畸人</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>不喜欢</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>tyrant814</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>get不到顶在哪里啊。。。&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>为什麽爱TA</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>插眼</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>乔萝莉陛下</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>可惜没有步兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>53度的百岁山</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>口技顶级</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>多行不义必吃鸡</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>可惜不让中出&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>木巍</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>河北春菜更好</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>古莲花池养金鱼</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>这么进 那么美 周来一起上河北&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>随便你说亲傻丫头亲</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>“我很喜欢你，请你赚钱养我并让我娶老婆。”&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>爱拍照的足球教练</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>不愿意，养不起</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>131旷野之息</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>东北彩花呢?&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>呆傻的乌龟</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>我要小南</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>小隐隐长大大</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>取件码多少啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CNB-阿门</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>愿意!！每次&lt;img alt="[哈哈]" title="[哈哈]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8f/2018new_haha_org.png" /&gt;时，舌头一吐一吐的，太有特点了&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;&lt;img alt="[允悲]" title="[允悲]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/83/2018new_kuxiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>因你执着_LYT</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>现在的根本不看，以前的女优美的各有各的特色，比如小泽玛利亚，饭岛爱，苍井空，长濑爱，提沙也加，渡濑晶，各有各的美，各有各的特色，如今的这些女优，简直就像一个模子刻出来的，长得千篇一律，身材都是千篇一律，根本认不出谁是谁</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>持久延时训练秘法</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>可以</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>一般路过特摄推笨小饼</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>让龟龟和接盘侠去娶吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>肉了个丸</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>恨塞🥚&lt;img alt="[喵喵]" title="[喵喵]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/7b/2018new_miaomiao_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>可靠的赵剑峰</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>不是江西彩花就行</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>原自能</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>日本人都愿意</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>裸奔的瘸子</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>有河南彩花嘛？给我来一个</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>火锅必点黄喉</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>这么近，那么美，周末来河北...采花</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>饶篮</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>我愿意</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>漫长的唯一</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>你没有机会&lt;img alt="[哈哈]" title="[哈哈]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/8f/2018new_haha_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>为现实苦恼</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>X2-睡不醒</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>这什么剧情&lt;img alt="[笑cry]" title="[笑cry]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/4a/2018new_xiaoku_thumb.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>我是程序袁</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>这是谁？都不认识&lt;img alt="[doge]" title="[doge]" src="https://face.t.sinajs.cn/t4/appstyle/expression/ext/normal/a1/2018new_doge02_org.png" /&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>